--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Node_Application\Practical Sem3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006FFAB-81A3-479F-99CB-5D3BE709FB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACFE785-EF63-40F0-A3E0-6E52647AA14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{8102306A-2827-48D6-A833-D25711CD6E3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8102306A-2827-48D6-A833-D25711CD6E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B4D95E-6F3F-4AD9-9508-3626F8DB7B47}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -1390,19 +1390,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BD5EFF-26EF-48C2-91CB-481104321207}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>197</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>197</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>197</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2328,7 +2328,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2607,7 +2607,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2828,7 +2828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -2883,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01689471-5DFB-452F-8568-C0DD9628A247}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
@@ -3193,7 +3193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E645145-168E-41E6-918F-B8B6E3286851}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3389,7 +3389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>197</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="69" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>197</v>
       </c>
